--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\POC\ExcelExport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE477B7-12A4-4592-BB89-6BC3E3B33BA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6095EDA0-4420-4898-9AEF-8D7D90B28A0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-675" windowWidth="29040" windowHeight="17640" xr2:uid="{9B2A21D7-FC9F-40CA-9902-08B2A6B5950B}"/>
+    <workbookView xWindow="1200" yWindow="1410" windowWidth="25260" windowHeight="11385" xr2:uid="{9B2A21D7-FC9F-40CA-9902-08B2A6B5950B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Account information</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Age + 5</t>
+  </si>
+  <si>
+    <t>Advance formulas</t>
+  </si>
+  <si>
+    <t>A week after DOB</t>
+  </si>
+  <si>
+    <t>A month after DOB</t>
+  </si>
+  <si>
+    <t>Quarter</t>
   </si>
 </sst>
 </file>
@@ -83,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +120,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -121,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +169,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925BA35C-F9A7-4E64-B263-11A1FCCEEDF6}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -488,10 +509,14 @@
     <col min="3" max="3" width="14.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
     <col min="5" max="5" width="26.140625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="45.5703125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -501,8 +526,14 @@
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -518,11 +549,20 @@
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -542,11 +582,24 @@
         <f>D3+5</f>
         <v>17</v>
       </c>
+      <c r="G3" s="6">
+        <f xml:space="preserve"> C3 + 7</f>
+        <v>39064</v>
+      </c>
+      <c r="H3" s="6">
+        <f>EDATE(C3,1)</f>
+        <v>39088</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f>"Q"&amp;ROUNDUP(MONTH(C3)/3, 0)</f>
+        <v>Q4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="biology">

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\POC\ExcelExport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6095EDA0-4420-4898-9AEF-8D7D90B28A0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9A453-D64E-42FF-BAE6-15BCD6EBCBA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1410" windowWidth="25260" windowHeight="11385" xr2:uid="{9B2A21D7-FC9F-40CA-9902-08B2A6B5950B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B2A21D7-FC9F-40CA-9902-08B2A6B5950B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -178,7 +178,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8989"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -188,6 +195,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8989"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -499,7 +511,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -602,8 +614,13 @@
     <mergeCell ref="F1:I1"/>
   </mergeCells>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="biology">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="biology">
       <formula>NOT(ISERROR(SEARCH("biology",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Q1">
+      <formula>NOT(ISERROR(SEARCH("Q1",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template.xlsx
+++ b/src/main/resources/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\POC\ExcelExport\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9A453-D64E-42FF-BAE6-15BCD6EBCBA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7221767-F8F7-4796-83C4-1942361DF887}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B2A21D7-FC9F-40CA-9902-08B2A6B5950B}"/>
+    <workbookView xWindow="-28920" yWindow="-675" windowWidth="29040" windowHeight="17640" xr2:uid="{9B2A21D7-FC9F-40CA-9902-08B2A6B5950B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Account information</t>
   </si>
@@ -73,13 +73,28 @@
   </si>
   <si>
     <t>Quarter</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>major</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +108,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -139,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,6 +185,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925BA35C-F9A7-4E64-B263-11A1FCCEEDF6}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -529,21 +553,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -605,6 +629,23 @@
       <c r="I3" s="1" t="str">
         <f>"Q"&amp;ROUNDUP(MONTH(C3)/3, 0)</f>
         <v>Q4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +654,7 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E1:E3 E5:E1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="biology">
       <formula>NOT(ISERROR(SEARCH("biology",E1)))</formula>
     </cfRule>
